--- a/4月/4月份运费表(4.13).xlsx
+++ b/4月/4月份运费表(4.13).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="98">
   <si>
     <t>日期</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +487,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -541,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -619,6 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,11 +908,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3939,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="26">
-        <f t="shared" ref="F126:F134" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F135" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4129,6 +4137,28 @@
         <v>20</v>
       </c>
       <c r="H134" s="26"/>
+    </row>
+    <row r="135" spans="1:8" ht="16.5">
+      <c r="A135" s="6">
+        <v>43568</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="13">
+        <v>13</v>
+      </c>
+      <c r="F135" s="26">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H135" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">
